--- a/regions/6/biznes seqtori/zomis mikhedvitt.xlsx
+++ b/regions/6/biznes seqtori/zomis mikhedvitt.xlsx
@@ -52,7 +52,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +91,14 @@
       <color indexed="8"/>
       <name val="Sylfaen"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -172,6 +180,8 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,11 +486,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -489,7 +497,7 @@
     <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +506,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -507,14 +515,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <v>2006</v>
@@ -561,8 +569,11 @@
       <c r="P5" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q5" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -611,8 +622,11 @@
       <c r="P6" s="13">
         <v>4311.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q6" s="13">
+        <v>6512.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -659,10 +673,13 @@
         <v>1157.8</v>
       </c>
       <c r="P7" s="14">
-        <v>3302.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+        <v>1046.2</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>3092.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -709,10 +726,13 @@
         <v>934.1</v>
       </c>
       <c r="P8" s="14">
-        <v>991.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+        <v>1025.0999999999999</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>1144.4000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -759,17 +779,20 @@
         <v>2193.3000000000002</v>
       </c>
       <c r="P9" s="14">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2240</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>2276.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,7 +801,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="5">
         <v>2006</v>
@@ -825,8 +848,11 @@
       <c r="P13" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q13" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -875,8 +901,12 @@
       <c r="P14" s="13">
         <v>2772.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="13">
+        <v>4229.7</v>
+      </c>
+      <c r="S14" s="17"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -923,10 +953,14 @@
         <v>1093.2</v>
       </c>
       <c r="P15" s="14">
-        <v>1715.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+        <v>1053.2</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>2244.5</v>
+      </c>
+      <c r="S15" s="18"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
@@ -973,10 +1007,14 @@
         <v>584.20000000000005</v>
       </c>
       <c r="P16" s="14">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+        <v>655.20000000000005</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>742.5</v>
+      </c>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
@@ -1023,10 +1061,14 @@
         <v>1024.2</v>
       </c>
       <c r="P17" s="14">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1063.9000000000001</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>1242.7</v>
+      </c>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1043,7 +1085,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1094,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5">
         <v>2006</v>
@@ -1099,8 +1141,11 @@
       <c r="P21" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q21" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1146,11 +1191,14 @@
       <c r="O22" s="15">
         <v>58015</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="15">
         <v>52960.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="15">
+        <v>58406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
@@ -1196,11 +1244,14 @@
       <c r="O23" s="16">
         <v>12020</v>
       </c>
-      <c r="P23" s="14">
-        <v>41760.300000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="P23" s="16">
+        <v>13160</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>14887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
@@ -1246,11 +1297,14 @@
       <c r="O24" s="16">
         <v>11578</v>
       </c>
-      <c r="P24" s="14">
-        <v>9611.2000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="P24" s="16">
+        <v>11249.5</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>10989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>4</v>
       </c>
@@ -1296,11 +1350,14 @@
       <c r="O25" s="16">
         <v>34417</v>
       </c>
-      <c r="P25" s="14">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="P25" s="16">
+        <v>28551</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>32529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1309,7 +1366,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5">
         <v>2006</v>
@@ -1356,8 +1413,11 @@
       <c r="P29" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q29" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1406,8 +1466,11 @@
       <c r="P30" s="13">
         <v>929.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q30" s="13">
+        <v>1045.9000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -1454,10 +1517,13 @@
         <v>1106.5</v>
       </c>
       <c r="P31" s="14">
-        <v>806.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+        <v>1309.0999999999999</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>1559.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
@@ -1504,10 +1570,13 @@
         <v>923</v>
       </c>
       <c r="P32" s="14">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+        <v>1071.5</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>1228.9000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>4</v>
       </c>
@@ -1554,7 +1623,10 @@
         <v>530.20000000000005</v>
       </c>
       <c r="P33" s="14">
-        <v>835.7</v>
+        <v>594.20000000000005</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>617.20000000000005</v>
       </c>
     </row>
   </sheetData>
